--- a/documentation/GANTT CHART - Scott Mains.xlsx
+++ b/documentation/GANTT CHART - Scott Mains.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\kv6003\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4B93EC-0948-48A5-B2C1-1F6DC2B1DD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E41C0F-7E8D-410C-8392-2D6099365D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49FA91D1-E045-474D-83F4-C32F2DE9CD74}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{49FA91D1-E045-474D-83F4-C32F2DE9CD74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -854,10 +854,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA692CE-AFE5-431D-A252-E3F2615DDF3B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="C4:AE53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,5 +2548,6 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="48" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>